--- a/matlab/preform/IRprofile_P_AND_G.xlsx
+++ b/matlab/preform/IRprofile_P_AND_G.xlsx
@@ -196,7 +196,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -423,316 +423,316 @@
                   <c:v>77.6986</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +912,7 @@
                   <c:v>92.15</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v/>
+                  <c:v>91.15</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v/>
@@ -1573,11 +1573,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43553038"/>
-        <c:axId val="27116727"/>
+        <c:axId val="53111601"/>
+        <c:axId val="3598625"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43553038"/>
+        <c:axId val="53111601"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,12 +1612,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27116727"/>
+        <c:crossAx val="3598625"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27116727"/>
+        <c:axId val="3598625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1663,7 +1663,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43553038"/>
+        <c:crossAx val="53111601"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1711,9 +1711,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
+      <xdr:colOff>85320</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1721,8 +1721,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3768840" y="841320"/>
-        <a:ext cx="9194400" cy="7060680"/>
+        <a:off x="3721320" y="841320"/>
+        <a:ext cx="9041760" cy="7060320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1740,16 +1740,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q56" activeCellId="0" sqref="Q56"/>
+      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,6 +2491,17 @@
       <c r="C57" s="0" t="n">
         <f aca="false">C56-0.7</f>
         <v>92.15</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>91.15</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>9.15</v>
       </c>
     </row>
   </sheetData>
@@ -2518,7 +2529,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/matlab/preform/IRprofile_P_AND_G.xlsx
+++ b/matlab/preform/IRprofile_P_AND_G.xlsx
@@ -196,7 +196,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -885,34 +885,34 @@
                   <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>95.65</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>95.25</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>94.85</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>94.45</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>94.05</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>93.65</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
+                  <c:v>94.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>93.25</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>92.85</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>92.15</c:v>
-                </c:pt>
                 <c:pt idx="56">
-                  <c:v>91.15</c:v>
+                  <c:v>92.25</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v/>
@@ -1542,42 +1542,42 @@
                   <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>95.65</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>95.25</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>94.85</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>94.45</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>94.05</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>93.65</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
+                  <c:v>94.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>93.25</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>92.85</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>92.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="53111601"/>
-        <c:axId val="3598625"/>
+        <c:axId val="4246459"/>
+        <c:axId val="62065242"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53111601"/>
+        <c:axId val="4246459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,12 +1612,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3598625"/>
+        <c:crossAx val="62065242"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3598625"/>
+        <c:axId val="62065242"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1663,7 +1663,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53111601"/>
+        <c:crossAx val="4246459"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2378,12 +2378,12 @@
         <v>69</v>
       </c>
       <c r="B49" s="0" t="n">
-        <f aca="false">B48-0.6</f>
-        <v>95.65</v>
+        <f aca="false">B48</f>
+        <v>96.25</v>
       </c>
       <c r="C49" s="0" t="n">
-        <f aca="false">C48-0.6</f>
-        <v>95.65</v>
+        <f aca="false">C48</f>
+        <v>96.25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,12 +2391,12 @@
         <v>70</v>
       </c>
       <c r="B50" s="0" t="n">
-        <f aca="false">B49-0.4</f>
-        <v>95.25</v>
+        <f aca="false">B49</f>
+        <v>96.25</v>
       </c>
       <c r="C50" s="0" t="n">
-        <f aca="false">C49-0.4</f>
-        <v>95.25</v>
+        <f aca="false">C49</f>
+        <v>96.25</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>3</v>
@@ -2407,12 +2407,12 @@
         <v>71</v>
       </c>
       <c r="B51" s="0" t="n">
-        <f aca="false">B50-0.4</f>
-        <v>94.85</v>
+        <f aca="false">B50</f>
+        <v>96.25</v>
       </c>
       <c r="C51" s="0" t="n">
-        <f aca="false">C50-0.4</f>
-        <v>94.85</v>
+        <f aca="false">C50</f>
+        <v>96.25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,12 +2420,12 @@
         <v>72</v>
       </c>
       <c r="B52" s="0" t="n">
-        <f aca="false">B51-0.4</f>
-        <v>94.45</v>
+        <f aca="false">B51</f>
+        <v>96.25</v>
       </c>
       <c r="C52" s="0" t="n">
-        <f aca="false">C51-0.4</f>
-        <v>94.45</v>
+        <f aca="false">C51</f>
+        <v>96.25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,12 +2433,12 @@
         <v>73</v>
       </c>
       <c r="B53" s="0" t="n">
-        <f aca="false">B52-0.4</f>
-        <v>94.05</v>
+        <f aca="false">B52</f>
+        <v>96.25</v>
       </c>
       <c r="C53" s="0" t="n">
-        <f aca="false">C52-0.4</f>
-        <v>94.05</v>
+        <f aca="false">C52</f>
+        <v>96.25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,12 +2446,12 @@
         <v>74</v>
       </c>
       <c r="B54" s="0" t="n">
-        <f aca="false">B53-0.4</f>
-        <v>93.65</v>
+        <f aca="false">B53</f>
+        <v>96.25</v>
       </c>
       <c r="C54" s="0" t="n">
-        <f aca="false">C53-0.4</f>
-        <v>93.65</v>
+        <f aca="false">C53</f>
+        <v>96.25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,12 +2459,12 @@
         <v>75</v>
       </c>
       <c r="B55" s="0" t="n">
-        <f aca="false">B54-0.4</f>
-        <v>93.25</v>
+        <f aca="false">B54-1</f>
+        <v>95.25</v>
       </c>
       <c r="C55" s="0" t="n">
-        <f aca="false">C54-0.4</f>
-        <v>93.25</v>
+        <f aca="false">C54-1</f>
+        <v>95.25</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,12 +2472,12 @@
         <v>76</v>
       </c>
       <c r="B56" s="0" t="n">
-        <f aca="false">B55-0.4</f>
-        <v>92.85</v>
+        <f aca="false">B55-1</f>
+        <v>94.25</v>
       </c>
       <c r="C56" s="0" t="n">
-        <f aca="false">C55-0.4</f>
-        <v>92.85</v>
+        <f aca="false">C55-1</f>
+        <v>94.25</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,12 +2485,12 @@
         <v>77.6986</v>
       </c>
       <c r="B57" s="0" t="n">
-        <f aca="false">B56-0.7</f>
-        <v>92.15</v>
+        <f aca="false">B56-1</f>
+        <v>93.25</v>
       </c>
       <c r="C57" s="0" t="n">
-        <f aca="false">C56-0.7</f>
-        <v>92.15</v>
+        <f aca="false">C56-1</f>
+        <v>93.25</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,10 +2498,12 @@
         <v>79</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>91.15</v>
+        <f aca="false">B57-1</f>
+        <v>92.25</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>9.15</v>
+        <f aca="false">C57-1</f>
+        <v>92.25</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/preform/IRprofile_P_AND_G.xlsx
+++ b/matlab/preform/IRprofile_P_AND_G.xlsx
@@ -196,7 +196,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -879,40 +879,40 @@
                   <c:v>97.45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>96.85</c:v>
+                  <c:v>96.65</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>96.25</c:v>
+                  <c:v>95.85</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96.25</c:v>
+                  <c:v>95.05</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>95.25</c:v>
+                  <c:v>92.95</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>94.25</c:v>
+                  <c:v>91.65</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>93.25</c:v>
+                  <c:v>90.35</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>92.25</c:v>
+                  <c:v>89.05</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v/>
@@ -1536,48 +1536,48 @@
                   <c:v>97.45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>96.85</c:v>
+                  <c:v>96.65</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>96.25</c:v>
+                  <c:v>95.85</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96.25</c:v>
+                  <c:v>95.05</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>96.25</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>95.25</c:v>
+                  <c:v>92.95</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>94.25</c:v>
+                  <c:v>91.65</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>93.25</c:v>
+                  <c:v>90.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4246459"/>
-        <c:axId val="62065242"/>
+        <c:axId val="30205917"/>
+        <c:axId val="74689200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4246459"/>
+        <c:axId val="30205917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,12 +1612,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62065242"/>
+        <c:crossAx val="74689200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62065242"/>
+        <c:axId val="74689200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1663,7 +1663,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4246459"/>
+        <c:crossAx val="30205917"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2352,12 +2352,12 @@
         <v>66</v>
       </c>
       <c r="B47" s="0" t="n">
-        <f aca="false">B46-0.6</f>
-        <v>96.85</v>
+        <f aca="false">B46-0.8</f>
+        <v>96.65</v>
       </c>
       <c r="C47" s="0" t="n">
-        <f aca="false">C46-0.6</f>
-        <v>96.85</v>
+        <f aca="false">C46-0.8</f>
+        <v>96.65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,12 +2365,12 @@
         <v>67.5</v>
       </c>
       <c r="B48" s="0" t="n">
-        <f aca="false">B47-0.6</f>
-        <v>96.25</v>
+        <f aca="false">B47-0.8</f>
+        <v>95.85</v>
       </c>
       <c r="C48" s="0" t="n">
-        <f aca="false">C47-0.6</f>
-        <v>96.25</v>
+        <f aca="false">C47-0.8</f>
+        <v>95.85</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,12 +2378,12 @@
         <v>69</v>
       </c>
       <c r="B49" s="0" t="n">
-        <f aca="false">B48</f>
-        <v>96.25</v>
+        <f aca="false">B48-0.8</f>
+        <v>95.05</v>
       </c>
       <c r="C49" s="0" t="n">
-        <f aca="false">C48</f>
-        <v>96.25</v>
+        <f aca="false">C48-0.8</f>
+        <v>95.05</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,12 +2391,12 @@
         <v>70</v>
       </c>
       <c r="B50" s="0" t="n">
-        <f aca="false">B49</f>
-        <v>96.25</v>
+        <f aca="false">B49-0.8</f>
+        <v>94.25</v>
       </c>
       <c r="C50" s="0" t="n">
-        <f aca="false">C49</f>
-        <v>96.25</v>
+        <f aca="false">C49-0.8</f>
+        <v>94.25</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>3</v>
@@ -2408,11 +2408,11 @@
       </c>
       <c r="B51" s="0" t="n">
         <f aca="false">B50</f>
-        <v>96.25</v>
+        <v>94.25</v>
       </c>
       <c r="C51" s="0" t="n">
         <f aca="false">C50</f>
-        <v>96.25</v>
+        <v>94.25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,11 +2421,11 @@
       </c>
       <c r="B52" s="0" t="n">
         <f aca="false">B51</f>
-        <v>96.25</v>
+        <v>94.25</v>
       </c>
       <c r="C52" s="0" t="n">
         <f aca="false">C51</f>
-        <v>96.25</v>
+        <v>94.25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,11 +2434,11 @@
       </c>
       <c r="B53" s="0" t="n">
         <f aca="false">B52</f>
-        <v>96.25</v>
+        <v>94.25</v>
       </c>
       <c r="C53" s="0" t="n">
         <f aca="false">C52</f>
-        <v>96.25</v>
+        <v>94.25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,11 +2447,11 @@
       </c>
       <c r="B54" s="0" t="n">
         <f aca="false">B53</f>
-        <v>96.25</v>
+        <v>94.25</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">C53</f>
-        <v>96.25</v>
+        <v>94.25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,12 +2459,12 @@
         <v>75</v>
       </c>
       <c r="B55" s="0" t="n">
-        <f aca="false">B54-1</f>
-        <v>95.25</v>
+        <f aca="false">B54-1.3</f>
+        <v>92.95</v>
       </c>
       <c r="C55" s="0" t="n">
-        <f aca="false">C54-1</f>
-        <v>95.25</v>
+        <f aca="false">C54-1.3</f>
+        <v>92.95</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,12 +2472,12 @@
         <v>76</v>
       </c>
       <c r="B56" s="0" t="n">
-        <f aca="false">B55-1</f>
-        <v>94.25</v>
+        <f aca="false">B55-1.3</f>
+        <v>91.65</v>
       </c>
       <c r="C56" s="0" t="n">
-        <f aca="false">C55-1</f>
-        <v>94.25</v>
+        <f aca="false">C55-1.3</f>
+        <v>91.65</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,12 +2485,12 @@
         <v>77.6986</v>
       </c>
       <c r="B57" s="0" t="n">
-        <f aca="false">B56-1</f>
-        <v>93.25</v>
+        <f aca="false">B56-1.3</f>
+        <v>90.35</v>
       </c>
       <c r="C57" s="0" t="n">
-        <f aca="false">C56-1</f>
-        <v>93.25</v>
+        <f aca="false">C56-1.3</f>
+        <v>90.35</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,12 +2498,12 @@
         <v>79</v>
       </c>
       <c r="B58" s="0" t="n">
-        <f aca="false">B57-1</f>
-        <v>92.25</v>
+        <f aca="false">B57-1.3</f>
+        <v>89.05</v>
       </c>
       <c r="C58" s="0" t="n">
-        <f aca="false">C57-1</f>
-        <v>92.25</v>
+        <f aca="false">C57-1.3</f>
+        <v>89.05</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/preform/IRprofile_P_AND_G.xlsx
+++ b/matlab/preform/IRprofile_P_AND_G.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IR profile" sheetId="1" state="visible" r:id="rId2"/>
@@ -196,7 +196,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -240,6 +240,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -891,28 +892,28 @@
                   <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.25</c:v>
+                  <c:v>93.45</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>94.25</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>94.25</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.25</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>92.95</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>91.65</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>90.35</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>89.05</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v/>
@@ -1209,6 +1210,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1548,36 +1550,36 @@
                   <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.25</c:v>
+                  <c:v>93.45</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>94.25</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>94.25</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.25</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>92.95</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>91.65</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>90.35</c:v>
+                  <c:v>92.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30205917"/>
-        <c:axId val="74689200"/>
+        <c:axId val="67318345"/>
+        <c:axId val="65159753"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30205917"/>
+        <c:axId val="67318345"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,28 +1598,24 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74689200"/>
+        <c:crossAx val="65159753"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74689200"/>
+        <c:axId val="65159753"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1647,23 +1645,19 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30205917"/>
+        <c:crossAx val="67318345"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1685,6 +1679,17 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -1711,9 +1716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>85320</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1722,7 +1727,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3721320" y="841320"/>
-        <a:ext cx="9041760" cy="7060320"/>
+        <a:ext cx="9041400" cy="7059960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1742,14 +1747,14 @@
   </sheetPr>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,12 +2412,12 @@
         <v>71</v>
       </c>
       <c r="B51" s="0" t="n">
-        <f aca="false">B50</f>
-        <v>94.25</v>
+        <f aca="false">B50-0.8</f>
+        <v>93.45</v>
       </c>
       <c r="C51" s="0" t="n">
-        <f aca="false">C50</f>
-        <v>94.25</v>
+        <f aca="false">C50-0.8</f>
+        <v>93.45</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,12 +2425,12 @@
         <v>72</v>
       </c>
       <c r="B52" s="0" t="n">
-        <f aca="false">B51</f>
-        <v>94.25</v>
+        <f aca="false">B51-0.8</f>
+        <v>92.65</v>
       </c>
       <c r="C52" s="0" t="n">
-        <f aca="false">C51</f>
-        <v>94.25</v>
+        <f aca="false">C51-0.8</f>
+        <v>92.65</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,11 +2439,11 @@
       </c>
       <c r="B53" s="0" t="n">
         <f aca="false">B52</f>
-        <v>94.25</v>
+        <v>92.65</v>
       </c>
       <c r="C53" s="0" t="n">
         <f aca="false">C52</f>
-        <v>94.25</v>
+        <v>92.65</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,11 +2452,11 @@
       </c>
       <c r="B54" s="0" t="n">
         <f aca="false">B53</f>
-        <v>94.25</v>
+        <v>92.65</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">C53</f>
-        <v>94.25</v>
+        <v>92.65</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,12 +2464,12 @@
         <v>75</v>
       </c>
       <c r="B55" s="0" t="n">
-        <f aca="false">B54-1.3</f>
-        <v>92.95</v>
+        <f aca="false">B54</f>
+        <v>92.65</v>
       </c>
       <c r="C55" s="0" t="n">
-        <f aca="false">C54-1.3</f>
-        <v>92.95</v>
+        <f aca="false">C54</f>
+        <v>92.65</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,12 +2477,12 @@
         <v>76</v>
       </c>
       <c r="B56" s="0" t="n">
-        <f aca="false">B55-1.3</f>
-        <v>91.65</v>
+        <f aca="false">B55</f>
+        <v>92.65</v>
       </c>
       <c r="C56" s="0" t="n">
-        <f aca="false">C55-1.3</f>
-        <v>91.65</v>
+        <f aca="false">C55</f>
+        <v>92.65</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,12 +2490,12 @@
         <v>77.6986</v>
       </c>
       <c r="B57" s="0" t="n">
-        <f aca="false">B56-1.3</f>
-        <v>90.35</v>
+        <f aca="false">B56</f>
+        <v>92.65</v>
       </c>
       <c r="C57" s="0" t="n">
-        <f aca="false">C56-1.3</f>
-        <v>90.35</v>
+        <f aca="false">C56</f>
+        <v>92.65</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,18 +2503,18 @@
         <v>79</v>
       </c>
       <c r="B58" s="0" t="n">
-        <f aca="false">B57-1.3</f>
-        <v>89.05</v>
+        <f aca="false">B57</f>
+        <v>92.65</v>
       </c>
       <c r="C58" s="0" t="n">
-        <f aca="false">C57-1.3</f>
-        <v>89.05</v>
+        <f aca="false">C57</f>
+        <v>92.65</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2525,18 +2530,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
